--- a/qa/lastmonth/【SQA质量月报】智能软件部202009.xlsx
+++ b/qa/lastmonth/【SQA质量月报】智能软件部202009.xlsx
@@ -4538,12 +4538,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -4849,15 +4849,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4867,21 +4859,6 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4901,10 +4878,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4917,7 +4901,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4928,35 +4912,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4976,6 +4931,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -4984,9 +4985,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5171,7 +5171,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5183,43 +5273,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5231,91 +5309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5823,17 +5823,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5848,16 +5848,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5882,17 +5882,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5919,10 +5919,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="43" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="40" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5931,148 +5931,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="35" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="35" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="48" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="50" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="50" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6083,8 +6083,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -6521,11 +6521,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6570,20 +6570,20 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="20" applyFont="1"/>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="22" fillId="19" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="177" fontId="22" fillId="19" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="19" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="20" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="20" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6824,16 +6824,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="25" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6863,15 +6863,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6905,10 +6902,10 @@
     <xf numFmtId="0" fontId="38" fillId="6" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6923,16 +6920,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7021,9 +7021,9 @@
     <cellStyle name="超链接" xfId="10" builtinId="8"/>
     <cellStyle name="百分比" xfId="11" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="14"/>
-    <cellStyle name="百分比 2" xfId="15"/>
+    <cellStyle name="百分比 2" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="15"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
     <cellStyle name="标题 4" xfId="17" builtinId="19"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
@@ -18336,8 +18336,8 @@
   </sheetPr>
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I$1:I$1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.5"/>
@@ -20291,17 +20291,19 @@
         <v>82</v>
       </c>
       <c r="E53" s="250">
-        <v>0.5814</v>
-      </c>
-      <c r="F53" s="243">
-        <v>0.973</v>
-      </c>
-      <c r="G53" s="243">
-        <f>G65/(IF(G61=0,1,G61))</f>
-        <v>0.942857142857143</v>
+        <f t="shared" ref="E53:E60" si="9">E65/(IF(E61=0,1,E61))</f>
+        <v>0.685714285714286</v>
+      </c>
+      <c r="F53" s="250">
+        <f t="shared" ref="F53:F60" si="10">F65/(IF(F61=0,1,F61))</f>
+        <v>0.837837837837838</v>
+      </c>
+      <c r="G53" s="250">
+        <f t="shared" ref="G53:G60" si="11">G65/(IF(G61=0,1,G61))</f>
+        <v>0.885714285714286</v>
       </c>
       <c r="H53" s="250">
-        <f t="shared" ref="H53:H60" si="9">H65/(IF(H61=0,1,H61))</f>
+        <f t="shared" ref="H53:H60" si="12">H65/(IF(H61=0,1,H61))</f>
         <v>0.794117647058823</v>
       </c>
       <c r="I53" s="250"/>
@@ -20309,16 +20311,17 @@
         <v>54</v>
       </c>
       <c r="K53" s="250">
-        <v>0.5814</v>
+        <f t="shared" ref="K53:K60" si="13">K65/(IF(K61=0,1,K61))</f>
+        <v>0.325581395348837</v>
       </c>
       <c r="L53" s="250">
-        <f t="shared" ref="L53:L56" si="10">L69/(IF(L65=0,1,L65))</f>
-        <v>0.75</v>
+        <f t="shared" ref="L53:L60" si="14">L65/(IF(L61=0,1,L61))</f>
+        <v>0.839622641509434</v>
       </c>
       <c r="M53" s="243"/>
       <c r="N53" s="250">
-        <f t="shared" ref="N53:N60" si="11">N65/(IF(N61=0,1,N61))</f>
-        <v>0.738255033557047</v>
+        <f t="shared" ref="N53:N60" si="15">N65/(IF(N61=0,1,N61))</f>
+        <v>0.691275167785235</v>
       </c>
       <c r="O53" s="264"/>
     </row>
@@ -20330,17 +20333,19 @@
       </c>
       <c r="D54" s="227"/>
       <c r="E54" s="243">
-        <v>0.57</v>
+        <f t="shared" si="9"/>
+        <v>0.652173913043478</v>
       </c>
       <c r="F54" s="243">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0.846153846153846</v>
       </c>
       <c r="G54" s="243">
-        <f t="shared" ref="G54:G60" si="12">G66/(IF(G62=0,1,G62))</f>
-        <v>0.964285714285714</v>
+        <f t="shared" si="11"/>
+        <v>0.892857142857143</v>
       </c>
       <c r="H54" s="243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.72</v>
       </c>
       <c r="I54" s="243"/>
@@ -20348,16 +20353,17 @@
         <v>54</v>
       </c>
       <c r="K54" s="243">
-        <v>0.57</v>
+        <f t="shared" si="13"/>
+        <v>0.266666666666667</v>
       </c>
       <c r="L54" s="243">
-        <f t="shared" si="10"/>
-        <v>1.11111111111111</v>
+        <f t="shared" si="14"/>
+        <v>0.87037037037037</v>
       </c>
       <c r="M54" s="229"/>
       <c r="N54" s="243">
-        <f t="shared" si="11"/>
-        <v>0.630952380952381</v>
+        <f t="shared" si="15"/>
+        <v>0.654761904761905</v>
       </c>
       <c r="O54" s="262"/>
     </row>
@@ -20369,17 +20375,19 @@
       </c>
       <c r="D55" s="227"/>
       <c r="E55" s="243">
-        <v>0.5</v>
+        <f t="shared" si="9"/>
+        <v>0.666666666666667</v>
       </c>
       <c r="F55" s="243">
+        <f t="shared" si="10"/>
         <v>0.875</v>
       </c>
       <c r="G55" s="243">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+      <c r="H55" s="243">
         <f t="shared" si="12"/>
-        <v>0.8</v>
-      </c>
-      <c r="H55" s="243">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I55" s="243"/>
@@ -20387,16 +20395,17 @@
         <v>54</v>
       </c>
       <c r="K55" s="243">
-        <v>0.5</v>
+        <f t="shared" si="13"/>
+        <v>0.3</v>
       </c>
       <c r="L55" s="243">
-        <f t="shared" si="10"/>
-        <v>1.42857142857143</v>
+        <f t="shared" si="14"/>
+        <v>0.846153846153846</v>
       </c>
       <c r="M55" s="229"/>
       <c r="N55" s="243">
-        <f t="shared" si="11"/>
-        <v>0.434782608695652</v>
+        <f t="shared" si="15"/>
+        <v>0.608695652173913</v>
       </c>
       <c r="O55" s="262"/>
     </row>
@@ -20408,17 +20417,19 @@
       </c>
       <c r="D56" s="227"/>
       <c r="E56" s="243">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F56" s="243">
+        <f t="shared" si="10"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G56" s="243">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="G56" s="243">
+      <c r="H56" s="243">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H56" s="243">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I56" s="243"/>
@@ -20426,15 +20437,16 @@
         <v>54</v>
       </c>
       <c r="K56" s="243">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L56" s="243">
-        <f t="shared" si="10"/>
-        <v>1.25</v>
+        <f t="shared" si="14"/>
+        <v>0.8</v>
       </c>
       <c r="M56" s="229"/>
       <c r="N56" s="243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.875</v>
       </c>
       <c r="O56" s="262"/>
@@ -20448,35 +20460,38 @@
       <c r="D57" s="256" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="250">
-        <v>0.3256</v>
+      <c r="E57" s="243">
+        <f t="shared" si="9"/>
+        <v>0.0416666666666667</v>
       </c>
       <c r="F57" s="243">
-        <v>0.6216</v>
+        <f t="shared" si="10"/>
+        <v>0.225806451612903</v>
       </c>
       <c r="G57" s="243">
+        <f t="shared" si="11"/>
+        <v>0.0645161290322581</v>
+      </c>
+      <c r="H57" s="243">
         <f t="shared" si="12"/>
-        <v>0.878787878787879</v>
-      </c>
-      <c r="H57" s="243">
-        <f t="shared" si="9"/>
         <v>0.740740740740741</v>
       </c>
       <c r="I57" s="243"/>
       <c r="J57" s="229" t="s">
         <v>54</v>
       </c>
-      <c r="K57" s="250">
-        <v>0.3256</v>
+      <c r="K57" s="243">
+        <f t="shared" si="13"/>
+        <v>1.78571428571429</v>
       </c>
       <c r="L57" s="243">
-        <f t="shared" ref="L57:L60" si="13">L69/(IF(L65=0,1,L65))</f>
-        <v>0.75</v>
+        <f t="shared" si="14"/>
+        <v>0.325842696629214</v>
       </c>
       <c r="M57" s="243"/>
       <c r="N57" s="243">
-        <f t="shared" si="11"/>
-        <v>0.881818181818182</v>
+        <f t="shared" si="15"/>
+        <v>0.524271844660194</v>
       </c>
       <c r="O57" s="269"/>
     </row>
@@ -20488,17 +20503,19 @@
       </c>
       <c r="D58" s="227"/>
       <c r="E58" s="243">
-        <v>0.2667</v>
+        <f t="shared" si="9"/>
+        <v>0.0666666666666667</v>
       </c>
       <c r="F58" s="243">
-        <v>0.6923</v>
+        <f t="shared" si="10"/>
+        <v>0.272727272727273</v>
       </c>
       <c r="G58" s="243">
+        <f t="shared" si="11"/>
+        <v>0.08</v>
+      </c>
+      <c r="H58" s="243">
         <f t="shared" si="12"/>
-        <v>0.888888888888889</v>
-      </c>
-      <c r="H58" s="243">
-        <f t="shared" si="9"/>
         <v>0.722222222222222</v>
       </c>
       <c r="I58" s="243"/>
@@ -20506,16 +20523,17 @@
         <v>54</v>
       </c>
       <c r="K58" s="243">
-        <v>0.2667</v>
+        <f t="shared" si="13"/>
+        <v>2.125</v>
       </c>
       <c r="L58" s="243">
-        <f t="shared" si="13"/>
-        <v>1.11111111111111</v>
+        <f t="shared" si="14"/>
+        <v>0.170212765957447</v>
       </c>
       <c r="M58" s="229"/>
       <c r="N58" s="243">
-        <f t="shared" si="11"/>
-        <v>1.26415094339623</v>
+        <f t="shared" si="15"/>
+        <v>0.454545454545455</v>
       </c>
       <c r="O58" s="269"/>
     </row>
@@ -20527,17 +20545,19 @@
       </c>
       <c r="D59" s="227"/>
       <c r="E59" s="243">
-        <v>0.3</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F59" s="243">
-        <v>0.375</v>
+        <f t="shared" si="10"/>
+        <v>0.142857142857143</v>
       </c>
       <c r="G59" s="243">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="243">
         <f t="shared" si="12"/>
-        <v>0.75</v>
-      </c>
-      <c r="H59" s="243">
-        <f t="shared" si="9"/>
         <v>0.666666666666667</v>
       </c>
       <c r="I59" s="243"/>
@@ -20545,16 +20565,17 @@
         <v>54</v>
       </c>
       <c r="K59" s="243">
-        <v>0.3</v>
+        <f t="shared" si="13"/>
+        <v>1.66666666666667</v>
       </c>
       <c r="L59" s="243">
-        <f t="shared" si="13"/>
-        <v>1.42857142857143</v>
+        <f t="shared" si="14"/>
+        <v>0.0909090909090909</v>
       </c>
       <c r="M59" s="229"/>
       <c r="N59" s="243">
-        <f t="shared" si="11"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0.428571428571429</v>
       </c>
       <c r="O59" s="269"/>
     </row>
@@ -20566,17 +20587,19 @@
       </c>
       <c r="D60" s="227"/>
       <c r="E60" s="243">
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F60" s="243">
-        <v>0.6667</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G60" s="243">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="243">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H60" s="243">
-        <f t="shared" si="9"/>
         <v>0.833333333333333</v>
       </c>
       <c r="I60" s="243"/>
@@ -20584,16 +20607,17 @@
         <v>54</v>
       </c>
       <c r="K60" s="243">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L60" s="243">
-        <f t="shared" si="13"/>
-        <v>1.25</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="M60" s="229"/>
       <c r="N60" s="243">
-        <f t="shared" si="11"/>
-        <v>1.14285714285714</v>
+        <f t="shared" si="15"/>
+        <v>0.428571428571429</v>
       </c>
       <c r="O60" s="269"/>
     </row>
@@ -20606,14 +20630,13 @@
       <c r="D61" s="258" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="229">
-        <v>43</v>
-      </c>
-      <c r="F61" s="229">
-        <f>F62+F63+F64</f>
+      <c r="E61" s="234">
+        <v>35</v>
+      </c>
+      <c r="F61" s="234">
         <v>37</v>
       </c>
-      <c r="G61" s="229">
+      <c r="G61" s="234">
         <v>35</v>
       </c>
       <c r="H61" s="234">
@@ -20632,7 +20655,7 @@
       </c>
       <c r="M61" s="261"/>
       <c r="N61" s="229">
-        <f t="shared" ref="N61:N69" si="14">SUM(J61:M61)</f>
+        <f t="shared" ref="N61:N69" si="16">SUM(J61:M61)</f>
         <v>149</v>
       </c>
       <c r="O61" s="269"/>
@@ -20644,13 +20667,13 @@
         <v>59</v>
       </c>
       <c r="D62" s="227"/>
-      <c r="E62" s="229">
-        <v>30</v>
-      </c>
-      <c r="F62" s="229">
+      <c r="E62" s="234">
+        <v>23</v>
+      </c>
+      <c r="F62" s="234">
         <v>26</v>
       </c>
-      <c r="G62" s="229">
+      <c r="G62" s="234">
         <v>28</v>
       </c>
       <c r="H62" s="234">
@@ -20664,12 +20687,12 @@
         <v>30</v>
       </c>
       <c r="L62" s="229">
-        <f t="shared" ref="L62:L76" si="15">SUM(F62:G62)</f>
+        <f t="shared" ref="L62:L76" si="17">SUM(F62:G62)</f>
         <v>54</v>
       </c>
       <c r="M62" s="261"/>
       <c r="N62" s="229">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>84</v>
       </c>
       <c r="O62" s="269"/>
@@ -20681,13 +20704,13 @@
         <v>60</v>
       </c>
       <c r="D63" s="227"/>
-      <c r="E63" s="229">
-        <v>10</v>
-      </c>
-      <c r="F63" s="229">
+      <c r="E63" s="234">
+        <v>9</v>
+      </c>
+      <c r="F63" s="234">
         <v>8</v>
       </c>
-      <c r="G63" s="229">
+      <c r="G63" s="234">
         <v>5</v>
       </c>
       <c r="H63" s="234">
@@ -20701,12 +20724,12 @@
         <v>10</v>
       </c>
       <c r="L63" s="229">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="M63" s="261"/>
       <c r="N63" s="229">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="O63" s="269"/>
@@ -20718,13 +20741,13 @@
         <v>61</v>
       </c>
       <c r="D64" s="227"/>
-      <c r="E64" s="229">
+      <c r="E64" s="234">
         <v>3</v>
       </c>
-      <c r="F64" s="229">
+      <c r="F64" s="234">
         <v>3</v>
       </c>
-      <c r="G64" s="229">
+      <c r="G64" s="234">
         <v>2</v>
       </c>
       <c r="H64" s="234">
@@ -20738,12 +20761,12 @@
         <v>3</v>
       </c>
       <c r="L64" s="229">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="M64" s="261"/>
       <c r="N64" s="229">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="O64" s="269"/>
@@ -20757,14 +20780,14 @@
       <c r="D65" s="258" t="s">
         <v>65</v>
       </c>
-      <c r="E65" s="229">
-        <v>25</v>
-      </c>
-      <c r="F65" s="229">
-        <v>36</v>
-      </c>
-      <c r="G65" s="229">
-        <v>33</v>
+      <c r="E65" s="234">
+        <v>24</v>
+      </c>
+      <c r="F65" s="234">
+        <v>31</v>
+      </c>
+      <c r="G65" s="234">
+        <v>31</v>
       </c>
       <c r="H65" s="234">
         <v>27</v>
@@ -20778,12 +20801,12 @@
       </c>
       <c r="L65" s="229">
         <f>SUM(F65:H65)</f>
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M65" s="261"/>
       <c r="N65" s="229">
-        <f t="shared" si="14"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>103</v>
       </c>
       <c r="O65" s="269"/>
     </row>
@@ -20794,14 +20817,14 @@
         <v>59</v>
       </c>
       <c r="D66" s="227"/>
-      <c r="E66" s="229">
-        <v>8</v>
-      </c>
-      <c r="F66" s="229">
-        <v>18</v>
-      </c>
-      <c r="G66" s="229">
-        <v>27</v>
+      <c r="E66" s="234">
+        <v>15</v>
+      </c>
+      <c r="F66" s="234">
+        <v>22</v>
+      </c>
+      <c r="G66" s="234">
+        <v>25</v>
       </c>
       <c r="H66" s="234">
         <v>18</v>
@@ -20814,13 +20837,13 @@
         <v>8</v>
       </c>
       <c r="L66" s="229">
-        <f t="shared" si="15"/>
-        <v>45</v>
+        <f t="shared" si="17"/>
+        <v>47</v>
       </c>
       <c r="M66" s="261"/>
       <c r="N66" s="229">
-        <f t="shared" si="14"/>
-        <v>53</v>
+        <f t="shared" si="16"/>
+        <v>55</v>
       </c>
       <c r="O66" s="269"/>
     </row>
@@ -20831,13 +20854,13 @@
         <v>60</v>
       </c>
       <c r="D67" s="227"/>
-      <c r="E67" s="229">
-        <v>3</v>
-      </c>
-      <c r="F67" s="229">
-        <v>3</v>
-      </c>
-      <c r="G67" s="229">
+      <c r="E67" s="234">
+        <v>6</v>
+      </c>
+      <c r="F67" s="234">
+        <v>7</v>
+      </c>
+      <c r="G67" s="234">
         <v>4</v>
       </c>
       <c r="H67" s="234">
@@ -20851,13 +20874,13 @@
         <v>3</v>
       </c>
       <c r="L67" s="229">
-        <f t="shared" si="15"/>
-        <v>7</v>
+        <f t="shared" si="17"/>
+        <v>11</v>
       </c>
       <c r="M67" s="261"/>
       <c r="N67" s="229">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="O67" s="269"/>
     </row>
@@ -20868,13 +20891,13 @@
         <v>61</v>
       </c>
       <c r="D68" s="227"/>
-      <c r="E68" s="229">
+      <c r="E68" s="234">
         <v>3</v>
       </c>
-      <c r="F68" s="229">
+      <c r="F68" s="234">
         <v>2</v>
       </c>
-      <c r="G68" s="229">
+      <c r="G68" s="234">
         <v>2</v>
       </c>
       <c r="H68" s="234">
@@ -20888,12 +20911,12 @@
         <v>3</v>
       </c>
       <c r="L68" s="229">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M68" s="261"/>
       <c r="N68" s="229">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="O68" s="269"/>
@@ -20907,14 +20930,14 @@
       <c r="D69" s="258" t="s">
         <v>65</v>
       </c>
-      <c r="E69" s="270">
-        <v>14</v>
-      </c>
-      <c r="F69" s="229">
-        <v>23</v>
-      </c>
-      <c r="G69" s="229">
-        <v>29</v>
+      <c r="E69" s="234">
+        <v>1</v>
+      </c>
+      <c r="F69" s="234">
+        <v>7</v>
+      </c>
+      <c r="G69" s="234">
+        <v>2</v>
       </c>
       <c r="H69" s="234">
         <v>20</v>
@@ -20923,17 +20946,17 @@
       <c r="J69" s="229" t="s">
         <v>54</v>
       </c>
-      <c r="K69" s="270">
+      <c r="K69" s="290">
         <v>25</v>
       </c>
       <c r="L69" s="229">
         <f>SUM(F69:H69)</f>
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M69" s="291"/>
       <c r="N69" s="229">
-        <f t="shared" si="14"/>
-        <v>97</v>
+        <f t="shared" si="16"/>
+        <v>54</v>
       </c>
       <c r="O69" s="269"/>
     </row>
@@ -20944,14 +20967,14 @@
         <v>59</v>
       </c>
       <c r="D70" s="227"/>
-      <c r="E70" s="229">
-        <v>17</v>
-      </c>
-      <c r="F70" s="270">
-        <v>26</v>
-      </c>
-      <c r="G70" s="270">
-        <v>24</v>
+      <c r="E70" s="234">
+        <v>1</v>
+      </c>
+      <c r="F70" s="234">
+        <v>6</v>
+      </c>
+      <c r="G70" s="234">
+        <v>2</v>
       </c>
       <c r="H70" s="234">
         <v>13</v>
@@ -20964,13 +20987,13 @@
         <v>17</v>
       </c>
       <c r="L70" s="229">
-        <f t="shared" si="15"/>
-        <v>50</v>
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="M70" s="261"/>
-      <c r="N70" s="270">
-        <f t="shared" ref="N70:N76" si="16">SUM(J70:M70)</f>
-        <v>67</v>
+      <c r="N70" s="290">
+        <f t="shared" ref="N70:N76" si="18">SUM(J70:M70)</f>
+        <v>25</v>
       </c>
       <c r="O70" s="269"/>
     </row>
@@ -20981,14 +21004,14 @@
         <v>60</v>
       </c>
       <c r="D71" s="227"/>
-      <c r="E71" s="229">
-        <v>5</v>
-      </c>
-      <c r="F71" s="229">
-        <v>7</v>
-      </c>
-      <c r="G71" s="229">
-        <v>3</v>
+      <c r="E71" s="234">
+        <v>0</v>
+      </c>
+      <c r="F71" s="234">
+        <v>1</v>
+      </c>
+      <c r="G71" s="234">
+        <v>0</v>
       </c>
       <c r="H71" s="234">
         <v>2</v>
@@ -21001,13 +21024,13 @@
         <v>5</v>
       </c>
       <c r="L71" s="229">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="M71" s="261"/>
       <c r="N71" s="229">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="18"/>
+        <v>6</v>
       </c>
       <c r="O71" s="269"/>
     </row>
@@ -21018,14 +21041,14 @@
         <v>61</v>
       </c>
       <c r="D72" s="227"/>
-      <c r="E72" s="229">
-        <v>3</v>
-      </c>
-      <c r="F72" s="229">
-        <v>3</v>
-      </c>
-      <c r="G72" s="229">
-        <v>2</v>
+      <c r="E72" s="234">
+        <v>0</v>
+      </c>
+      <c r="F72" s="234">
+        <v>0</v>
+      </c>
+      <c r="G72" s="234">
+        <v>0</v>
       </c>
       <c r="H72" s="234">
         <v>5</v>
@@ -21038,13 +21061,13 @@
         <v>3</v>
       </c>
       <c r="L72" s="229">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="M72" s="261"/>
       <c r="N72" s="229">
-        <f t="shared" si="16"/>
-        <v>8</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="O72" s="269"/>
     </row>
@@ -21057,18 +21080,21 @@
       <c r="D73" s="258" t="s">
         <v>65</v>
       </c>
-      <c r="E73" s="255">
-        <v>1</v>
-      </c>
-      <c r="F73" s="255">
-        <f>F74+F75+F76</f>
-        <v>14</v>
-      </c>
-      <c r="G73" s="255">
+      <c r="E73" s="234">
+        <f t="shared" ref="E73:E76" si="19">E61-E65</f>
         <v>11</v>
       </c>
+      <c r="F73" s="234">
+        <f t="shared" ref="F73:F76" si="20">F61-F65</f>
+        <v>6</v>
+      </c>
+      <c r="G73" s="234">
+        <f t="shared" ref="G73:G76" si="21">G61-G65</f>
+        <v>4</v>
+      </c>
       <c r="H73" s="234">
-        <v>10</v>
+        <f t="shared" ref="H73:H76" si="22">H61-H65</f>
+        <v>7</v>
       </c>
       <c r="I73" s="260"/>
       <c r="J73" s="229" t="s">
@@ -21079,12 +21105,12 @@
       </c>
       <c r="L73" s="229">
         <f>SUM(F73:H73)</f>
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M73" s="292"/>
       <c r="N73" s="255">
-        <f t="shared" si="16"/>
-        <v>36</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="O73" s="269"/>
     </row>
@@ -21095,17 +21121,21 @@
         <v>59</v>
       </c>
       <c r="D74" s="227"/>
-      <c r="E74" s="229">
-        <v>1</v>
-      </c>
-      <c r="F74" s="229">
-        <v>9</v>
-      </c>
-      <c r="G74" s="229">
-        <v>6</v>
+      <c r="E74" s="234">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="F74" s="234">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="G74" s="234">
+        <f t="shared" si="21"/>
+        <v>3</v>
       </c>
       <c r="H74" s="234">
-        <v>10</v>
+        <f t="shared" si="22"/>
+        <v>7</v>
       </c>
       <c r="I74" s="260"/>
       <c r="J74" s="229" t="s">
@@ -21115,13 +21145,13 @@
         <v>1</v>
       </c>
       <c r="L74" s="229">
-        <f t="shared" si="15"/>
-        <v>15</v>
+        <f t="shared" si="17"/>
+        <v>7</v>
       </c>
       <c r="M74" s="261"/>
       <c r="N74" s="229">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="18"/>
+        <v>8</v>
       </c>
       <c r="O74" s="269"/>
     </row>
@@ -21132,16 +21162,20 @@
         <v>60</v>
       </c>
       <c r="D75" s="227"/>
-      <c r="E75" s="229">
-        <v>0</v>
-      </c>
-      <c r="F75" s="229">
-        <v>4</v>
-      </c>
-      <c r="G75" s="229">
-        <v>2</v>
+      <c r="E75" s="234">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="F75" s="234">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G75" s="234">
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="H75" s="234">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I75" s="260"/>
@@ -21152,13 +21186,13 @@
         <v>0</v>
       </c>
       <c r="L75" s="229">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="M75" s="261"/>
       <c r="N75" s="229">
-        <f t="shared" si="16"/>
-        <v>6</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="O75" s="269"/>
     </row>
@@ -21169,16 +21203,20 @@
         <v>61</v>
       </c>
       <c r="D76" s="227"/>
-      <c r="E76" s="229">
-        <v>0</v>
-      </c>
-      <c r="F76" s="229">
+      <c r="E76" s="234">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="234">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="G76" s="229">
-        <v>3</v>
+      <c r="G76" s="234">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="H76" s="234">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I76" s="260"/>
@@ -21189,13 +21227,13 @@
         <v>0</v>
       </c>
       <c r="L76" s="229">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="M76" s="261"/>
       <c r="N76" s="229">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="O76" s="269"/>
     </row>
@@ -21250,7 +21288,7 @@
       <c r="F78" s="255">
         <v>23</v>
       </c>
-      <c r="G78" s="271">
+      <c r="G78" s="270">
         <v>26</v>
       </c>
       <c r="H78" s="234">
@@ -21283,7 +21321,7 @@
       <c r="F79" s="255">
         <v>6</v>
       </c>
-      <c r="G79" s="271">
+      <c r="G79" s="270">
         <v>7</v>
       </c>
       <c r="H79" s="234">
@@ -21316,7 +21354,7 @@
       <c r="F80" s="255">
         <v>1</v>
       </c>
-      <c r="G80" s="271">
+      <c r="G80" s="270">
         <v>4</v>
       </c>
       <c r="H80" s="234">
@@ -21357,260 +21395,260 @@
       <c r="P81" s="294"/>
     </row>
     <row r="82" s="216" customFormat="1" ht="18" hidden="1" outlineLevel="2" spans="1:16">
-      <c r="A82" s="272" t="s">
+      <c r="A82" s="271" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="273"/>
-      <c r="C82" s="274" t="s">
+      <c r="B82" s="272"/>
+      <c r="C82" s="273" t="s">
         <v>92</v>
       </c>
-      <c r="D82" s="274"/>
-      <c r="E82" s="274"/>
-      <c r="F82" s="274"/>
-      <c r="G82" s="274"/>
-      <c r="H82" s="274"/>
-      <c r="I82" s="274"/>
-      <c r="J82" s="274"/>
-      <c r="K82" s="274"/>
-      <c r="L82" s="274"/>
-      <c r="M82" s="274"/>
-      <c r="N82" s="274"/>
+      <c r="D82" s="273"/>
+      <c r="E82" s="273"/>
+      <c r="F82" s="273"/>
+      <c r="G82" s="273"/>
+      <c r="H82" s="273"/>
+      <c r="I82" s="273"/>
+      <c r="J82" s="273"/>
+      <c r="K82" s="273"/>
+      <c r="L82" s="273"/>
+      <c r="M82" s="273"/>
+      <c r="N82" s="273"/>
       <c r="O82" s="295"/>
       <c r="P82" s="296"/>
     </row>
     <row r="83" s="216" customFormat="1" ht="22.5" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A83" s="272" t="s">
+      <c r="A83" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="273"/>
-      <c r="C83" s="275" t="s">
+      <c r="B83" s="272"/>
+      <c r="C83" s="274" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="275"/>
-      <c r="E83" s="275"/>
-      <c r="F83" s="275"/>
-      <c r="G83" s="275"/>
-      <c r="H83" s="275"/>
-      <c r="I83" s="275"/>
-      <c r="J83" s="275"/>
-      <c r="K83" s="275"/>
-      <c r="L83" s="275"/>
-      <c r="M83" s="275"/>
-      <c r="N83" s="275"/>
+      <c r="D83" s="274"/>
+      <c r="E83" s="274"/>
+      <c r="F83" s="274"/>
+      <c r="G83" s="274"/>
+      <c r="H83" s="274"/>
+      <c r="I83" s="274"/>
+      <c r="J83" s="274"/>
+      <c r="K83" s="274"/>
+      <c r="L83" s="274"/>
+      <c r="M83" s="274"/>
+      <c r="N83" s="274"/>
       <c r="O83" s="297"/>
       <c r="P83" s="296"/>
     </row>
     <row r="84" s="216" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A84" s="276" t="s">
+      <c r="A84" s="275" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="277"/>
-      <c r="C84" s="278" t="s">
+      <c r="B84" s="276"/>
+      <c r="C84" s="277" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="278"/>
-      <c r="E84" s="278"/>
-      <c r="F84" s="278"/>
-      <c r="G84" s="278"/>
-      <c r="H84" s="278"/>
-      <c r="I84" s="278"/>
-      <c r="J84" s="278"/>
-      <c r="K84" s="278"/>
-      <c r="L84" s="278"/>
-      <c r="M84" s="278"/>
-      <c r="N84" s="278"/>
+      <c r="D84" s="277"/>
+      <c r="E84" s="277"/>
+      <c r="F84" s="277"/>
+      <c r="G84" s="277"/>
+      <c r="H84" s="277"/>
+      <c r="I84" s="277"/>
+      <c r="J84" s="277"/>
+      <c r="K84" s="277"/>
+      <c r="L84" s="277"/>
+      <c r="M84" s="277"/>
+      <c r="N84" s="277"/>
       <c r="O84" s="298"/>
       <c r="P84" s="296"/>
     </row>
     <row r="85" s="216" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A85" s="276" t="s">
+      <c r="A85" s="275" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="277"/>
-      <c r="C85" s="278" t="s">
+      <c r="B85" s="276"/>
+      <c r="C85" s="277" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="278"/>
-      <c r="E85" s="278"/>
-      <c r="F85" s="278"/>
-      <c r="G85" s="278"/>
-      <c r="H85" s="278"/>
-      <c r="I85" s="278"/>
-      <c r="J85" s="278"/>
-      <c r="K85" s="278"/>
-      <c r="L85" s="278"/>
-      <c r="M85" s="278"/>
-      <c r="N85" s="278"/>
+      <c r="D85" s="277"/>
+      <c r="E85" s="277"/>
+      <c r="F85" s="277"/>
+      <c r="G85" s="277"/>
+      <c r="H85" s="277"/>
+      <c r="I85" s="277"/>
+      <c r="J85" s="277"/>
+      <c r="K85" s="277"/>
+      <c r="L85" s="277"/>
+      <c r="M85" s="277"/>
+      <c r="N85" s="277"/>
       <c r="O85" s="298"/>
       <c r="P85" s="296"/>
     </row>
     <row r="86" s="216" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
-      <c r="A86" s="276" t="s">
+      <c r="A86" s="275" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="277"/>
-      <c r="C86" s="279" t="s">
+      <c r="B86" s="276"/>
+      <c r="C86" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="D86" s="279"/>
-      <c r="E86" s="279"/>
-      <c r="F86" s="279"/>
-      <c r="G86" s="279"/>
-      <c r="H86" s="279"/>
-      <c r="I86" s="279"/>
-      <c r="J86" s="279"/>
-      <c r="K86" s="279"/>
-      <c r="L86" s="279"/>
-      <c r="M86" s="279"/>
-      <c r="N86" s="279"/>
+      <c r="D86" s="278"/>
+      <c r="E86" s="278"/>
+      <c r="F86" s="278"/>
+      <c r="G86" s="278"/>
+      <c r="H86" s="278"/>
+      <c r="I86" s="278"/>
+      <c r="J86" s="278"/>
+      <c r="K86" s="278"/>
+      <c r="L86" s="278"/>
+      <c r="M86" s="278"/>
+      <c r="N86" s="278"/>
       <c r="O86" s="299"/>
       <c r="P86" s="296"/>
     </row>
     <row r="87" s="216" customFormat="1" ht="45.6" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A87" s="276" t="s">
+      <c r="A87" s="275" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="277"/>
-      <c r="C87" s="280" t="s">
+      <c r="B87" s="276"/>
+      <c r="C87" s="279" t="s">
         <v>102</v>
       </c>
-      <c r="D87" s="280"/>
-      <c r="E87" s="280"/>
-      <c r="F87" s="280"/>
-      <c r="G87" s="280"/>
-      <c r="H87" s="280"/>
-      <c r="I87" s="280"/>
-      <c r="J87" s="280"/>
-      <c r="K87" s="280"/>
-      <c r="L87" s="280"/>
-      <c r="M87" s="280"/>
-      <c r="N87" s="280"/>
+      <c r="D87" s="279"/>
+      <c r="E87" s="279"/>
+      <c r="F87" s="279"/>
+      <c r="G87" s="279"/>
+      <c r="H87" s="279"/>
+      <c r="I87" s="279"/>
+      <c r="J87" s="279"/>
+      <c r="K87" s="279"/>
+      <c r="L87" s="279"/>
+      <c r="M87" s="279"/>
+      <c r="N87" s="279"/>
       <c r="O87" s="300"/>
       <c r="P87" s="296"/>
     </row>
     <row r="88" s="215" customFormat="1" ht="23.25" customHeight="1" spans="1:15">
-      <c r="A88" s="281" t="s">
+      <c r="A88" s="280" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="281"/>
-      <c r="C88" s="282" t="s">
+      <c r="B88" s="280"/>
+      <c r="C88" s="281" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="283"/>
-      <c r="E88" s="283"/>
-      <c r="F88" s="283"/>
-      <c r="G88" s="283"/>
-      <c r="H88" s="283"/>
-      <c r="I88" s="283"/>
-      <c r="J88" s="283"/>
-      <c r="K88" s="283"/>
-      <c r="L88" s="283"/>
-      <c r="M88" s="283"/>
-      <c r="N88" s="283"/>
-      <c r="O88" s="283"/>
+      <c r="D88" s="282"/>
+      <c r="E88" s="282"/>
+      <c r="F88" s="282"/>
+      <c r="G88" s="282"/>
+      <c r="H88" s="282"/>
+      <c r="I88" s="282"/>
+      <c r="J88" s="282"/>
+      <c r="K88" s="282"/>
+      <c r="L88" s="282"/>
+      <c r="M88" s="282"/>
+      <c r="N88" s="282"/>
+      <c r="O88" s="282"/>
     </row>
     <row r="89" s="215" customFormat="1" ht="23.25" customHeight="1" spans="1:15">
-      <c r="A89" s="284" t="s">
+      <c r="A89" s="283" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="285"/>
-      <c r="C89" s="285"/>
-      <c r="D89" s="285"/>
-      <c r="E89" s="285"/>
-      <c r="F89" s="285"/>
-      <c r="G89" s="285"/>
-      <c r="H89" s="285"/>
-      <c r="I89" s="285"/>
-      <c r="J89" s="285"/>
-      <c r="K89" s="285"/>
-      <c r="L89" s="285"/>
-      <c r="M89" s="285"/>
-      <c r="N89" s="285"/>
+      <c r="B89" s="284"/>
+      <c r="C89" s="284"/>
+      <c r="D89" s="284"/>
+      <c r="E89" s="284"/>
+      <c r="F89" s="284"/>
+      <c r="G89" s="284"/>
+      <c r="H89" s="284"/>
+      <c r="I89" s="284"/>
+      <c r="J89" s="284"/>
+      <c r="K89" s="284"/>
+      <c r="L89" s="284"/>
+      <c r="M89" s="284"/>
+      <c r="N89" s="284"/>
       <c r="O89" s="301"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="286" t="s">
+      <c r="A90" s="285" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="287"/>
-      <c r="C90" s="282" t="s">
+      <c r="B90" s="286"/>
+      <c r="C90" s="281" t="s">
         <v>106</v>
       </c>
-      <c r="D90" s="282"/>
-      <c r="E90" s="282"/>
-      <c r="F90" s="288"/>
-      <c r="G90" s="288"/>
-      <c r="H90" s="288"/>
-      <c r="I90" s="288"/>
-      <c r="J90" s="288"/>
-      <c r="K90" s="288"/>
-      <c r="L90" s="288"/>
-      <c r="M90" s="288"/>
-      <c r="N90" s="288"/>
-      <c r="O90" s="288"/>
+      <c r="D90" s="281"/>
+      <c r="E90" s="281"/>
+      <c r="F90" s="287"/>
+      <c r="G90" s="287"/>
+      <c r="H90" s="287"/>
+      <c r="I90" s="287"/>
+      <c r="J90" s="287"/>
+      <c r="K90" s="287"/>
+      <c r="L90" s="287"/>
+      <c r="M90" s="287"/>
+      <c r="N90" s="287"/>
+      <c r="O90" s="287"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="286" t="s">
+      <c r="A91" s="285" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="287"/>
-      <c r="C91" s="282" t="s">
+      <c r="B91" s="286"/>
+      <c r="C91" s="281" t="s">
         <v>108</v>
       </c>
-      <c r="D91" s="282"/>
-      <c r="E91" s="282"/>
-      <c r="F91" s="288"/>
-      <c r="G91" s="288"/>
-      <c r="H91" s="288"/>
-      <c r="I91" s="288"/>
-      <c r="J91" s="288"/>
-      <c r="K91" s="288"/>
-      <c r="L91" s="288"/>
-      <c r="M91" s="288"/>
-      <c r="N91" s="288"/>
-      <c r="O91" s="288"/>
+      <c r="D91" s="281"/>
+      <c r="E91" s="281"/>
+      <c r="F91" s="287"/>
+      <c r="G91" s="287"/>
+      <c r="H91" s="287"/>
+      <c r="I91" s="287"/>
+      <c r="J91" s="287"/>
+      <c r="K91" s="287"/>
+      <c r="L91" s="287"/>
+      <c r="M91" s="287"/>
+      <c r="N91" s="287"/>
+      <c r="O91" s="287"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="286" t="s">
+      <c r="A92" s="285" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="287"/>
-      <c r="C92" s="289" t="s">
+      <c r="B92" s="286"/>
+      <c r="C92" s="288" t="s">
         <v>110</v>
       </c>
-      <c r="D92" s="282"/>
-      <c r="E92" s="282"/>
-      <c r="F92" s="288"/>
-      <c r="G92" s="288"/>
-      <c r="H92" s="288"/>
-      <c r="I92" s="288"/>
-      <c r="J92" s="288"/>
-      <c r="K92" s="288"/>
-      <c r="L92" s="288"/>
-      <c r="M92" s="288"/>
-      <c r="N92" s="288"/>
-      <c r="O92" s="288"/>
+      <c r="D92" s="281"/>
+      <c r="E92" s="281"/>
+      <c r="F92" s="287"/>
+      <c r="G92" s="287"/>
+      <c r="H92" s="287"/>
+      <c r="I92" s="287"/>
+      <c r="J92" s="287"/>
+      <c r="K92" s="287"/>
+      <c r="L92" s="287"/>
+      <c r="M92" s="287"/>
+      <c r="N92" s="287"/>
+      <c r="O92" s="287"/>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:15">
-      <c r="A93" s="286" t="s">
+      <c r="A93" s="285" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="287"/>
-      <c r="C93" s="290" t="s">
+      <c r="B93" s="286"/>
+      <c r="C93" s="289" t="s">
         <v>112</v>
       </c>
-      <c r="D93" s="289"/>
-      <c r="E93" s="289"/>
-      <c r="F93" s="283"/>
-      <c r="G93" s="283"/>
-      <c r="H93" s="283"/>
-      <c r="I93" s="283"/>
-      <c r="J93" s="283"/>
-      <c r="K93" s="283"/>
-      <c r="L93" s="283"/>
-      <c r="M93" s="283"/>
-      <c r="N93" s="283"/>
-      <c r="O93" s="283"/>
+      <c r="D93" s="288"/>
+      <c r="E93" s="288"/>
+      <c r="F93" s="282"/>
+      <c r="G93" s="282"/>
+      <c r="H93" s="282"/>
+      <c r="I93" s="282"/>
+      <c r="J93" s="282"/>
+      <c r="K93" s="282"/>
+      <c r="L93" s="282"/>
+      <c r="M93" s="282"/>
+      <c r="N93" s="282"/>
+      <c r="O93" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="33">
